--- a/medicine/Enfance/Julia_Billet/Julia_Billet.xlsx
+++ b/medicine/Enfance/Julia_Billet/Julia_Billet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julia Billet, née le 9 février 1962[1] à Maisons-Laffitte (Yvelines), est une autrice française de romans, de nouvelles, de scénarios de bande dessinée et de poésie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Billet, née le 9 février 1962 à Maisons-Laffitte (Yvelines), est une autrice française de romans, de nouvelles, de scénarios de bande dessinée et de poésie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julia Billet habite dans le département des Vosges. Elle est professeur à l'École supérieure d'art d'Épinal[2] et enseigne dans une association d’aide aux migrants. Elle anime aussi des ateliers d’écriture à l’école, en prison, et auprès des malades d’Alzheimer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Billet habite dans le département des Vosges. Elle est professeur à l'École supérieure d'art d'Épinal et enseigne dans une association d’aide aux migrants. Elle anime aussi des ateliers d’écriture à l’école, en prison, et auprès des malades d’Alzheimer.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sont signalées ici uniquement les premières éditions.
-Romans
-J'ai oublié : roman, Aigues-Vives, HB éditions, 1998, 215 p. (ISBN 2-911406-46-X).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont signalées ici uniquement les premières éditions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J'ai oublié : roman, Aigues-Vives, HB éditions, 1998, 215 p. (ISBN 2-911406-46-X).
 De silences et de glace, Paris, L'École des loisirs, coll. « Médium », 2002, 110 p. (ISBN 2-211-06367-5).
 Salle des pas perdus, Paris, L'École des loisirs, coll. « Médium », 2003, 90 p. (ISBN 2-211-06751-4).
 Alors, partir ?, Paris, Éditions du Seuil, coll. « Karactère(s) », 2008, 107 p. (ISBN 978-2-02-097287-1).
@@ -556,17 +607,85 @@
 La Trouille, La Celle-Saint-Cloud, Éditions Le Calicot, 2017, 62 p. (ISBN 979-1-097340-01-8).
 Des feuilles et des branches  (ill. Manon Ficus), La Celle-Saint-Cloud/01-Péronnas, Éditions Le Calicot, 2018, 159 p. (ISBN 979-1-097340-04-9).
 Au nom de Catherine, Paris/53-Mayenne, L'École des loisirs, coll. « Médium », 2020, 358 p. (ISBN 978-2-211-30768-0).
-Julia Billet et Cécile Roumiguière, Ô sisters, Paris/53-Mayenne, L'École des loisirs, coll. « Médium + », 2022, 363 p. (ISBN 978-2-211-31859-4).
-Nouvelles
-Cris de guerre : recueil de nouvelles, Aigues-Vives, HB éditions, coll. « Textes courts », 2000, 103 p. (ISBN 2-911406-76-1).
+Julia Billet et Cécile Roumiguière, Ô sisters, Paris/53-Mayenne, L'École des loisirs, coll. « Médium + », 2022, 363 p. (ISBN 978-2-211-31859-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cris de guerre : recueil de nouvelles, Aigues-Vives, HB éditions, coll. « Textes courts », 2000, 103 p. (ISBN 2-911406-76-1).
 Le Fil invisible : nouvelle  (ill. Sandrine Martin), Paris, Éditions Le Baron perché, coll. « Les Orpailleurs », 2007, 45 p. (ISBN 978-2-35131-052-6).
-Petites Histoires de quartiers : recueil de nouvelles, Saint André (Réunion), Éditions Océan, coll. « Océan Ados », 2010, 197 p. (ISBN 978-2-916533-99-5). Ouvrage publié avec le soutien de l'Observatoire des inégalités[3]
+Petites Histoires de quartiers : recueil de nouvelles, Saint André (Réunion), Éditions Océan, coll. « Océan Ados », 2010, 197 p. (ISBN 978-2-916533-99-5). Ouvrage publié avec le soutien de l'Observatoire des inégalités
 Promesses : deux nouvelles, Paris, Le Muscardier, 2013, 62 p. (ISBN 979-10-90685-22-2).
 À suivre : nouvelle, Auxerre, éditions Rhubarbe, 2014, 27 p. (ISBN 978-2-916597-73-7).
 Chambre d'ombre : nouvelle  (ill. Cyril Dominger, photogr. Patrick Jacques), Épinal, Éditions du Pourquoi pas ?, coll. « Pourquoi pas l'écriture ? », 2016 (ISBN 979-1-092353-28-0).
-Un air de voyage : nouvelles  (photogr. Patrick Jacques), Éditions du Pourquoi pas ?, 2022 (ISBN 979-10-92353-69-3)[4].
-Albums pour enfants
-Je n'oublierai pas, Éditions Motus, coll. « Mouchoir de poche », 2006, 28 p. (ISBN 978-2-907354-67-7).
+Un air de voyage : nouvelles  (photogr. Patrick Jacques), Éditions du Pourquoi pas ?, 2022 (ISBN 979-10-92353-69-3).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Je n'oublierai pas, Éditions Motus, coll. « Mouchoir de poche », 2006, 28 p. (ISBN 978-2-907354-67-7).
 Noémie lit et crie, Urville-Nacqueville, Éditions Motus, coll. « Mouchoir de poche », 2007, 32 p. (ISBN 978-2-907354-74-5).
 Pourquoi c'est toujours moi qui ?  (ill. Nana Margabim), Éditions Océan, 2007, 33 p. (ISBN 978-2-916533-27-8).
 T'es qui, toi ?, Urville-Nacqueville, Éditions Motus, coll. « Mouchoir de poche », 2010, 28 p. (ISBN 978-2-36011-011-7).
@@ -578,59 +697,163 @@
 Le Caillou  (ill. Hélène Humbert), Épinal/impr. en République tchèque, Éditions du Pourquoi pas ?, 2017, 24 p. (ISBN 979-10-92353-36-5).
 La Feuille  (ill. Hélène Humbert), Épinal/impr. en République tchèque, Éditions du Pourquoi pas ?, 2017, 24 p. (ISBN 979-10-92353-37-2).
 Plus fort que le vent  (ill. Ana Aranda), Clichy/impr. en UE, Éditions du Jasmin, 2018 (ISBN 978-2-35284-151-7).
-Au fil de l'eau  (ill. Célia Housset), Épinal, Éditions du Pourquoi pas ?, coll. « Pourquoi pas la Terre ? », 2019, 30 p. (ISBN 979-10-92353-56-3).
-Bandes dessinées
-Mo  (ill. Simon Bailly), Épinal, Éditions du Pourquoi pas ?, 2015, 55 p. (ISBN 979-10-92353-17-4).
+Au fil de l'eau  (ill. Célia Housset), Épinal, Éditions du Pourquoi pas ?, coll. « Pourquoi pas la Terre ? », 2019, 30 p. (ISBN 979-10-92353-56-3).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mo  (ill. Simon Bailly), Épinal, Éditions du Pourquoi pas ?, 2015, 55 p. (ISBN 979-10-92353-17-4).
 Le Mystère de la chambre froide  (ill. Simon Bailly), Épinal, Éditions du Pourquoi pas ?, 2016, 55 p. (ISBN 979-10-92353-17-4).
 La Guerre de Catherine  (ill. Claire Fauvel), Paris, Rue de Sèvres, 2016, 160 p. (ISBN 978-2-36981-362-0).
-La Beauté du monde  (ill. Jérôme Ruillier), Paris/impr. en Lettonie, L'Agrume, 2018, 78 p. (ISBN 979-10-90743-75-5)[5],[6],[7].
-Au nom de Catherine (ill. Mayalen Goust), Rue de Sèvres, 2023  (ISBN 978-2-81020-058-0)
-Livres d’artistes
-J'ai le monde à l'envers, conception et graphisme Grégoire Dubuis, éditions La Nef des fous, 2022
+La Beauté du monde  (ill. Jérôme Ruillier), Paris/impr. en Lettonie, L'Agrume, 2018, 78 p. (ISBN 979-10-90743-75-5).
+Au nom de Catherine (ill. Mayalen Goust), Rue de Sèvres, 2023  (ISBN 978-2-81020-058-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres d’artistes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>J'ai le monde à l'envers, conception et graphisme Grégoire Dubuis, éditions La Nef des fous, 2022
 Un petit vélo dans les mots, conception et graphisme Grégoire Dubuis, édition La Nef des fous, 2019.
-Maison, crée puis illustré par le peintre Youl, 2004.
-Ouvrages collectifs
-Caracolavie et autres poèmes (écriture et coordination artistique), avec Esther Puifhouloux, Juliette Rahban et un collectif d'enfants et d'adultes de la ville de Contrexéville, 2013  (ISBN 979-10-92353-05-1).
+Maison, crée puis illustré par le peintre Youl, 2004.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Caracolavie et autres poèmes (écriture et coordination artistique), avec Esther Puifhouloux, Juliette Rahban et un collectif d'enfants et d'adultes de la ville de Contrexéville, 2013  (ISBN 979-10-92353-05-1).
 L'Écrivantaire (écriture et coordination artistique), Éditions du Pourquoi pas ?, coll. « Pourquoi pas l'écriture ? », 2014  (ISBN 979-10-92353-11-2)
 Corps et graphie : récit d'ateliers d'écriture à France Alzheimer (écriture et coordination), Éditions du Pourquoi pas ?, coll. « Pourquoi pas l'écriture ? », 2015  (ISBN 979-10-92353-22-8).
 Vivre Livre (écriture et coordination artistique), illustré par Hélène Humbert, Éditions du Pourquoi pas ?, 2016  (ISBN 979-10-92353-23-5).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Julia_Billet</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Julia_Billet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Billet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Batchelder Honor award for Catherine's war, BD dessinée par Claire Fauvel, 2021, Etats Unis[8]
-Prix Artémisia de la fiction historique 2018 pour La Guerre de Catherine, dessinée par Claire Fauvel[9]
-Prix Fauve Jeunesse 2018, pour La Guerre de Catherine, dessinée par Claire Fauvel[10]
-Prix Raconte nous l'histoire 2018, pour La Guerre de Catherine, dessinée par Claire Fauvel, et pour La trouille[11]
-Prix Premio Andersen 2018 pour La Guerre de Catherine, en Italie (traduction italienne de la BD), dessinée par Claire Fauvel[12]`
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Batchelder Honor award for Catherine's war, BD dessinée par Claire Fauvel, 2021, Etats Unis
+Prix Artémisia de la fiction historique 2018 pour La Guerre de Catherine, dessinée par Claire Fauvel
+Prix Fauve Jeunesse 2018, pour La Guerre de Catherine, dessinée par Claire Fauvel
+Prix Raconte nous l'histoire 2018, pour La Guerre de Catherine, dessinée par Claire Fauvel, et pour La trouille
+Prix Premio Andersen 2018 pour La Guerre de Catherine, en Italie (traduction italienne de la BD), dessinée par Claire Fauvel`
 Prix Marguerite Audoux des collégiens pour Salle des pas perdus, 2006
-Prix Sainte-Beuve des collégiens, 2011 pour Sayonara samourai [13]
-Prix 12/14 de Brive-la-Gaillarde 2008 pour Alors, partir ?[14]</t>
+Prix Sainte-Beuve des collégiens, 2011 pour Sayonara samourai 
+Prix 12/14 de Brive-la-Gaillarde 2008 pour Alors, partir ?</t>
         </is>
       </c>
     </row>
